--- a/data/P2 Industry rates.xlsx
+++ b/data/P2 Industry rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviji\Desktop\MOHRE_Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviji\Desktop\MOHRE_Project\Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAA189-A76B-4F1E-90F9-F13F71013963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC56352-3790-4ECA-A2FA-975F94E455B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5EBF965-9257-4241-A0EF-144CFBDA00CE}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50" defaultRowHeight="15"/>
@@ -715,7 +715,7 @@
         <v>14.00730651607471</v>
       </c>
       <c r="G2" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="4">
         <f>E2+I2</f>
@@ -749,7 +749,7 @@
         <v>12.504952756026185</v>
       </c>
       <c r="G3" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H23" si="1">E3+I3</f>
@@ -783,7 +783,7 @@
         <v>8.5165323874112744</v>
       </c>
       <c r="G4" s="3">
-        <v>3.5000000000000004</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
@@ -817,7 +817,7 @@
         <v>10.511066097956078</v>
       </c>
       <c r="G5" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
@@ -851,7 +851,7 @@
         <v>11.013665798619297</v>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
@@ -885,7 +885,7 @@
         <v>13.514155207279387</v>
       </c>
       <c r="G7" s="3">
-        <v>3.5000000000000004</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
@@ -919,7 +919,7 @@
         <v>16.015764025179458</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
@@ -953,7 +953,7 @@
         <v>11.51870751072158</v>
       </c>
       <c r="G9" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
@@ -987,7 +987,7 @@
         <v>14.525106142688315</v>
       </c>
       <c r="G10" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
@@ -1021,7 +1021,7 @@
         <v>7.0180451469033232</v>
       </c>
       <c r="G11" s="3">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
@@ -1055,7 +1055,7 @@
         <v>9.0150597724774606</v>
       </c>
       <c r="G12" s="3">
-        <v>3.5000000000000004</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
@@ -1089,7 +1089,7 @@
         <v>12.015333615251372</v>
       </c>
       <c r="G13" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
@@ -1123,7 +1123,7 @@
         <v>7.0265162421724412</v>
       </c>
       <c r="G14" s="3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
@@ -1157,7 +1157,7 @@
         <v>13.518045146903324</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
@@ -1191,7 +1191,7 @@
         <v>8.5082921564955463</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
@@ -1225,7 +1225,7 @@
         <v>9.0219318705531926</v>
       </c>
       <c r="G17" s="3">
-        <v>3.5000000000000004</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="1"/>
@@ -1259,7 +1259,7 @@
         <v>9.0256220515902488</v>
       </c>
       <c r="G18" s="3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
@@ -1293,7 +1293,7 @@
         <v>12.524188448750099</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
@@ -1327,7 +1327,7 @@
         <v>13.520659191257325</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
@@ -1361,7 +1361,7 @@
         <v>19.008682665782594</v>
       </c>
       <c r="G21" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
@@ -1395,7 +1395,7 @@
         <v>10.014987438702166</v>
       </c>
       <c r="G22" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
@@ -1429,7 +1429,7 @@
         <v>11.004952756026185</v>
       </c>
       <c r="G23" s="3">
-        <v>3.5000000000000004</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="1"/>

--- a/data/P2 Industry rates.xlsx
+++ b/data/P2 Industry rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviji\Desktop\MOHRE_Project\Dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviji\Desktop\MOHRE_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC56352-3790-4ECA-A2FA-975F94E455B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAA189-A76B-4F1E-90F9-F13F71013963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5EBF965-9257-4241-A0EF-144CFBDA00CE}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50" defaultRowHeight="15"/>
@@ -715,7 +715,7 @@
         <v>14.00730651607471</v>
       </c>
       <c r="G2" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4">
         <f>E2+I2</f>
@@ -749,7 +749,7 @@
         <v>12.504952756026185</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H23" si="1">E3+I3</f>
@@ -783,7 +783,7 @@
         <v>8.5165323874112744</v>
       </c>
       <c r="G4" s="3">
-        <v>3.0000000000000004</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
@@ -817,7 +817,7 @@
         <v>10.511066097956078</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
@@ -851,7 +851,7 @@
         <v>11.013665798619297</v>
       </c>
       <c r="G6" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
@@ -885,7 +885,7 @@
         <v>13.514155207279387</v>
       </c>
       <c r="G7" s="3">
-        <v>3.0000000000000004</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
@@ -919,7 +919,7 @@
         <v>16.015764025179458</v>
       </c>
       <c r="G8" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
@@ -953,7 +953,7 @@
         <v>11.51870751072158</v>
       </c>
       <c r="G9" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
@@ -987,7 +987,7 @@
         <v>14.525106142688315</v>
       </c>
       <c r="G10" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
@@ -1021,7 +1021,7 @@
         <v>7.0180451469033232</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
@@ -1055,7 +1055,7 @@
         <v>9.0150597724774606</v>
       </c>
       <c r="G12" s="3">
-        <v>3.0000000000000004</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
@@ -1089,7 +1089,7 @@
         <v>12.015333615251372</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
@@ -1123,7 +1123,7 @@
         <v>7.0265162421724412</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
@@ -1157,7 +1157,7 @@
         <v>13.518045146903324</v>
       </c>
       <c r="G15" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
@@ -1191,7 +1191,7 @@
         <v>8.5082921564955463</v>
       </c>
       <c r="G16" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
@@ -1225,7 +1225,7 @@
         <v>9.0219318705531926</v>
       </c>
       <c r="G17" s="3">
-        <v>3.0000000000000004</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="1"/>
@@ -1259,7 +1259,7 @@
         <v>9.0256220515902488</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
@@ -1293,7 +1293,7 @@
         <v>12.524188448750099</v>
       </c>
       <c r="G19" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
@@ -1327,7 +1327,7 @@
         <v>13.520659191257325</v>
       </c>
       <c r="G20" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
@@ -1361,7 +1361,7 @@
         <v>19.008682665782594</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
@@ -1395,7 +1395,7 @@
         <v>10.014987438702166</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
@@ -1429,7 +1429,7 @@
         <v>11.004952756026185</v>
       </c>
       <c r="G23" s="3">
-        <v>3.0000000000000004</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="1"/>

--- a/data/P2 Industry rates.xlsx
+++ b/data/P2 Industry rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviji\Desktop\MOHRE_Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviji\Desktop\MOHRE_Project\Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAA189-A76B-4F1E-90F9-F13F71013963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C46FE-A7BD-4B09-A9AD-E59860930914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5EBF965-9257-4241-A0EF-144CFBDA00CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5EBF965-9257-4241-A0EF-144CFBDA00CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,12 +301,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,27 +642,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9822A35-5E92-49B2-91BC-30378F32F75E}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="50" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -705,30 +705,31 @@
         <f>CONCATENATE(A2,"-",B2)</f>
         <v>A-Agriculture and fishing</v>
       </c>
-      <c r="D2" s="6">
-        <v>1.9E-2</v>
+      <c r="D2" s="7">
+        <v>1.9</v>
       </c>
       <c r="E2" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4">
         <v>14.00730651607471</v>
       </c>
       <c r="G2" s="3">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H2" s="4">
         <f>E2+I2</f>
-        <v>15.007306516074712</v>
-      </c>
-      <c r="I2" s="7">
+        <v>13.007306516074712</v>
+      </c>
+      <c r="I2" s="5">
         <v>7.3065160747110003E-3</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -739,30 +740,31 @@
         <f t="shared" ref="C3:C23" si="0">CONCATENATE(A3,"-",B3)</f>
         <v>B-Mining and quarrying</v>
       </c>
-      <c r="D3" s="6">
-        <v>1.2E-2</v>
+      <c r="D3" s="7">
+        <v>1.2</v>
       </c>
       <c r="E3" s="4">
-        <v>14.000000000000002</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="F3" s="4">
         <v>12.504952756026185</v>
       </c>
       <c r="G3" s="3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H23" si="1">E3+I3</f>
-        <v>14.004952756026185</v>
-      </c>
-      <c r="I3" s="7">
+        <v>12.004952756026185</v>
+      </c>
+      <c r="I3" s="5">
         <v>4.9527560261841685E-3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -773,30 +775,31 @@
         <f t="shared" si="0"/>
         <v>C-Manufacturing</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.04</v>
+      <c r="D4" s="7">
+        <v>4</v>
       </c>
       <c r="E4" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>8.5165323874112744</v>
       </c>
       <c r="G4" s="3">
-        <v>3.5000000000000004</v>
+        <v>6</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>11.016532387411274</v>
-      </c>
-      <c r="I4" s="7">
+        <v>9.0165323874112744</v>
+      </c>
+      <c r="I4" s="5">
         <v>1.6532387411274163E-2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -807,30 +810,31 @@
         <f t="shared" si="0"/>
         <v>D-Electricity and gas supply</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.04</v>
+      <c r="D5" s="7">
+        <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <v>10.511066097956078</v>
       </c>
       <c r="G5" s="3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>12.011066097956078</v>
-      </c>
-      <c r="I5" s="7">
+        <v>10.011066097956078</v>
+      </c>
+      <c r="I5" s="5">
         <v>1.1066097956078824E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -841,30 +845,31 @@
         <f t="shared" si="0"/>
         <v>E-Water supply, sewerage and waste</v>
       </c>
-      <c r="D6" s="6">
-        <v>3.3000000000000002E-2</v>
+      <c r="D6" s="7">
+        <v>3.3000000000000003</v>
       </c>
       <c r="E6" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4">
         <v>11.013665798619297</v>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>13.013665798619297</v>
-      </c>
-      <c r="I6" s="7">
+        <v>11.013665798619297</v>
+      </c>
+      <c r="I6" s="5">
         <v>1.3665798619296732E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -875,30 +880,31 @@
         <f t="shared" si="0"/>
         <v>F-Construction</v>
       </c>
-      <c r="D7" s="6">
-        <v>4.2000000000000003E-2</v>
+      <c r="D7" s="7">
+        <v>4.2</v>
       </c>
       <c r="E7" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4">
         <v>13.514155207279387</v>
       </c>
       <c r="G7" s="3">
-        <v>3.5000000000000004</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>16.014155207279387</v>
-      </c>
-      <c r="I7" s="7">
+        <v>14.014155207279387</v>
+      </c>
+      <c r="I7" s="5">
         <v>1.4155207279386239E-2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -909,30 +915,31 @@
         <f t="shared" si="0"/>
         <v>G-Wholesale and retail</v>
       </c>
-      <c r="D8" s="6">
-        <v>3.7999999999999999E-2</v>
+      <c r="D8" s="7">
+        <v>3.8</v>
       </c>
       <c r="E8" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>16.015764025179458</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>18.015764025179458</v>
-      </c>
-      <c r="I8" s="7">
+        <v>16.015764025179458</v>
+      </c>
+      <c r="I8" s="5">
         <v>1.5764025179458185E-2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -943,30 +950,31 @@
         <f t="shared" si="0"/>
         <v>H-Transportation and storage</v>
       </c>
-      <c r="D9" s="6">
-        <v>5.0999999999999997E-2</v>
+      <c r="D9" s="7">
+        <v>5.0999999999999996</v>
       </c>
       <c r="E9" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4">
         <v>11.51870751072158</v>
       </c>
       <c r="G9" s="3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>15.01870751072158</v>
-      </c>
-      <c r="I9" s="7">
+        <v>13.01870751072158</v>
+      </c>
+      <c r="I9" s="5">
         <v>1.8707510721580611E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -977,30 +985,31 @@
         <f t="shared" si="0"/>
         <v>I-Accommodation and food services</v>
       </c>
-      <c r="D10" s="6">
-        <v>5.8000000000000003E-2</v>
+      <c r="D10" s="7">
+        <v>5.8000000000000007</v>
       </c>
       <c r="E10" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4">
         <v>14.525106142688315</v>
       </c>
       <c r="G10" s="3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>18.025106142688315</v>
-      </c>
-      <c r="I10" s="7">
+        <v>16.025106142688315</v>
+      </c>
+      <c r="I10" s="5">
         <v>2.5106142688315458E-2</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1011,30 +1020,31 @@
         <f t="shared" si="0"/>
         <v>J-Information and communication</v>
       </c>
-      <c r="D11" s="6">
-        <v>7.8E-2</v>
+      <c r="D11" s="7">
+        <v>7.8</v>
       </c>
       <c r="E11" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4">
         <v>7.0180451469033232</v>
       </c>
       <c r="G11" s="3">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>12.018045146903324</v>
-      </c>
-      <c r="I11" s="7">
+        <v>10.018045146903324</v>
+      </c>
+      <c r="I11" s="5">
         <v>1.8045146903323372E-2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1045,30 +1055,31 @@
         <f t="shared" si="0"/>
         <v>K-Financial activities</v>
       </c>
-      <c r="D12" s="6">
-        <v>0.05</v>
+      <c r="D12" s="7">
+        <v>5</v>
       </c>
       <c r="E12" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <v>9.0150597724774606</v>
       </c>
       <c r="G12" s="3">
-        <v>3.5000000000000004</v>
+        <v>6</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>12.015059772477461</v>
-      </c>
-      <c r="I12" s="7">
+        <v>10.015059772477461</v>
+      </c>
+      <c r="I12" s="5">
         <v>1.505977247745971E-2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1079,30 +1090,31 @@
         <f t="shared" si="0"/>
         <v>L-Real estate activities</v>
       </c>
-      <c r="D13" s="6">
-        <v>3.5000000000000003E-2</v>
+      <c r="D13" s="7">
+        <v>3.5000000000000004</v>
       </c>
       <c r="E13" s="4">
-        <v>14.000000000000002</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="F13" s="4">
         <v>12.015333615251372</v>
       </c>
       <c r="G13" s="3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>14.015333615251373</v>
-      </c>
-      <c r="I13" s="7">
+        <v>12.015333615251373</v>
+      </c>
+      <c r="I13" s="5">
         <v>1.5333615251372334E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1113,30 +1125,31 @@
         <f t="shared" si="0"/>
         <v>M-Professional, scientific and technical activities</v>
       </c>
-      <c r="D14" s="6">
-        <v>6.4000000000000001E-2</v>
+      <c r="D14" s="7">
+        <v>6.4</v>
       </c>
       <c r="E14" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="4">
         <v>7.0265162421724412</v>
       </c>
       <c r="G14" s="3">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>11.026516242172441</v>
-      </c>
-      <c r="I14" s="7">
+        <v>9.0265162421724412</v>
+      </c>
+      <c r="I14" s="5">
         <v>2.6516242172441196E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1147,30 +1160,31 @@
         <f t="shared" si="0"/>
         <v>N-Administrative services activities</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.04</v>
+      <c r="D15" s="7">
+        <v>4</v>
       </c>
       <c r="E15" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4">
         <v>13.518045146903324</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>16.018045146903322</v>
-      </c>
-      <c r="I15" s="7">
+        <v>14.018045146903324</v>
+      </c>
+      <c r="I15" s="5">
         <v>1.8045146903323372E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1181,30 +1195,31 @@
         <f t="shared" si="0"/>
         <v>O-Public administration and defence</v>
       </c>
-      <c r="D16" s="6">
-        <v>2.3E-2</v>
+      <c r="D16" s="7">
+        <v>2.2999999999999998</v>
       </c>
       <c r="E16" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="4">
         <v>8.5082921564955463</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>10.008292156495546</v>
-      </c>
-      <c r="I16" s="7">
+        <v>8.0082921564955463</v>
+      </c>
+      <c r="I16" s="5">
         <v>8.2921564955467097E-3</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1215,30 +1230,31 @@
         <f t="shared" si="0"/>
         <v>P-Education</v>
       </c>
-      <c r="D17" s="6">
-        <v>4.8000000000000001E-2</v>
+      <c r="D17" s="7">
+        <v>4.8</v>
       </c>
       <c r="E17" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4">
         <v>9.0219318705531926</v>
       </c>
       <c r="G17" s="3">
-        <v>3.5000000000000004</v>
+        <v>6</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="1"/>
-        <v>12.021931870553193</v>
-      </c>
-      <c r="I17" s="7">
+        <v>10.021931870553193</v>
+      </c>
+      <c r="I17" s="5">
         <v>2.1931870553193011E-2</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1249,30 +1265,31 @@
         <f t="shared" si="0"/>
         <v>Q-Health and social work</v>
       </c>
-      <c r="D18" s="6">
-        <v>5.8000000000000003E-2</v>
+      <c r="D18" s="7">
+        <v>5.8000000000000007</v>
       </c>
       <c r="E18" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="4">
         <v>9.0256220515902488</v>
       </c>
       <c r="G18" s="3">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>13.025622051590249</v>
-      </c>
-      <c r="I18" s="7">
+        <v>11.025622051590249</v>
+      </c>
+      <c r="I18" s="5">
         <v>2.5622051590248107E-2</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1283,30 +1300,31 @@
         <f t="shared" si="0"/>
         <v>R-Arts, entertainment and recreation</v>
       </c>
-      <c r="D19" s="6">
-        <v>5.5E-2</v>
+      <c r="D19" s="7">
+        <v>5.5</v>
       </c>
       <c r="E19" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4">
         <v>12.524188448750099</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>15.024188448750099</v>
-      </c>
-      <c r="I19" s="7">
+        <v>13.024188448750099</v>
+      </c>
+      <c r="I19" s="5">
         <v>2.4188448750098512E-2</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1317,30 +1335,31 @@
         <f t="shared" si="0"/>
         <v>S-Other service activities</v>
       </c>
-      <c r="D20" s="6">
-        <v>3.5999999999999997E-2</v>
+      <c r="D20" s="7">
+        <v>3.5999999999999996</v>
       </c>
       <c r="E20" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" s="4">
         <v>13.520659191257325</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>16.020659191257327</v>
-      </c>
-      <c r="I20" s="7">
+        <v>14.020659191257325</v>
+      </c>
+      <c r="I20" s="5">
         <v>2.0659191257325293E-2</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1351,30 +1370,31 @@
         <f t="shared" si="0"/>
         <v>T-Activities of households</v>
       </c>
-      <c r="D21" s="6">
-        <v>2.7E-2</v>
+      <c r="D21" s="7">
+        <v>2.7</v>
       </c>
       <c r="E21" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="4">
         <v>19.008682665782594</v>
       </c>
       <c r="G21" s="3">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>20.008682665782594</v>
-      </c>
-      <c r="I21" s="7">
+        <v>18.008682665782594</v>
+      </c>
+      <c r="I21" s="5">
         <v>8.6826657825942455E-3</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -1385,30 +1405,31 @@
         <f t="shared" si="0"/>
         <v>U-Activities of organizations and bodies</v>
       </c>
-      <c r="D22" s="6">
-        <v>1.4E-2</v>
+      <c r="D22" s="7">
+        <v>1.4000000000000001</v>
       </c>
       <c r="E22" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" s="4">
         <v>10.014987438702166</v>
       </c>
       <c r="G22" s="3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
-        <v>12.014987438702166</v>
-      </c>
-      <c r="I22" s="7">
+        <v>10.014987438702166</v>
+      </c>
+      <c r="I22" s="5">
         <v>1.498743870216579E-2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1419,28 +1440,32 @@
         <f t="shared" si="0"/>
         <v>Z-Other</v>
       </c>
-      <c r="D23" s="5">
-        <v>1.2E-2</v>
+      <c r="D23" s="7">
+        <v>1.2</v>
       </c>
       <c r="E23" s="4">
-        <v>14.000000000000002</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="F23" s="4">
         <v>11.004952756026185</v>
       </c>
       <c r="G23" s="3">
-        <v>3.5000000000000004</v>
+        <v>6</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="1"/>
-        <v>14.004952756026185</v>
-      </c>
-      <c r="I23" s="7">
+        <v>12.004952756026185</v>
+      </c>
+      <c r="I23" s="5">
         <v>4.9527560261841685E-3</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>3.8</v>
       </c>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
